--- a/DATA_goal/Junction_Flooding_205.xlsx
+++ b/DATA_goal/Junction_Flooding_205.xlsx
@@ -443,7 +443,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
@@ -655,103 +655,103 @@
         <v>41637.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>9.48</v>
+        <v>0.95</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>6.75</v>
+        <v>0.68</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>2.89</v>
+        <v>0.29</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>21</v>
+        <v>2.1</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>15.57</v>
+        <v>1.56</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>7.16</v>
+        <v>0.72</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>20.7</v>
+        <v>2.07</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>11.91</v>
+        <v>1.19</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>4.95</v>
+        <v>0.5</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>6.43</v>
+        <v>0.64</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>8.31</v>
+        <v>0.83</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>9.140000000000001</v>
+        <v>0.91</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.55</v>
+        <v>0.26</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>7.74</v>
+        <v>0.77</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>10.3</v>
+        <v>1.03</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>7.25</v>
+        <v>0.73</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.03</v>
+        <v>0.2</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.82</v>
+        <v>0.08</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>110.48</v>
+        <v>11.05</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>21.29</v>
+        <v>2.13</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>7.15</v>
+        <v>0.71</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>13.32</v>
+        <v>1.33</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>7.33</v>
+        <v>0.73</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>1.47</v>
+        <v>0.15</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>12.63</v>
+        <v>1.26</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>6.31</v>
+        <v>0.63</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.89</v>
+        <v>0.59</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>6.8</v>
+        <v>0.68</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>9.210000000000001</v>
+        <v>0.92</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.45</v>
+        <v>0.25</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>18.76</v>
+        <v>1.88</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.56</v>
+        <v>0.36</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>8.94</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41637.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>13.77</v>
+        <v>1.38</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>10.19</v>
+        <v>1.02</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.57</v>
+        <v>0.16</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>30.41</v>
+        <v>3.04</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>24.16</v>
+        <v>2.42</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>10.6</v>
+        <v>1.06</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>39.87</v>
+        <v>3.99</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>16.92</v>
+        <v>1.69</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>7.52</v>
+        <v>0.75</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>10.47</v>
+        <v>1.05</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>12.13</v>
+        <v>1.21</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>13.06</v>
+        <v>1.31</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.59</v>
+        <v>0.36</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>10.98</v>
+        <v>1.1</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>15.32</v>
+        <v>1.53</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>9.640000000000001</v>
+        <v>0.96</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.11</v>
+        <v>0.11</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.64</v>
+        <v>0.06</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>159.77</v>
+        <v>15.98</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>30.66</v>
+        <v>3.07</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>10.13</v>
+        <v>1.01</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>20.18</v>
+        <v>2.02</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>10.71</v>
+        <v>1.07</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.53</v>
+        <v>0.15</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>20.85</v>
+        <v>2.08</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>8.949999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>8.08</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>9.48</v>
+        <v>0.95</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>12.93</v>
+        <v>1.29</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>36.63</v>
+        <v>3.66</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>5.49</v>
+        <v>0.55</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>12.67</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41637.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>5.39</v>
+        <v>0.54</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>3.96</v>
+        <v>0.4</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.89</v>
+        <v>0.09</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>12.08</v>
+        <v>1.21</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>9.32</v>
+        <v>0.93</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>4.04</v>
+        <v>0.4</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>20.24</v>
+        <v>2.02</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>6.69</v>
+        <v>0.67</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>3.04</v>
+        <v>0.3</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>3.87</v>
+        <v>0.39</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>4.81</v>
+        <v>0.48</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>5.25</v>
+        <v>0.53</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.47</v>
+        <v>0.15</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>4.36</v>
+        <v>0.44</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>6.02</v>
+        <v>0.6</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>4.01</v>
+        <v>0.4</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.74</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>59.08</v>
+        <v>5.91</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>12.39</v>
+        <v>1.24</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>4.03</v>
+        <v>0.4</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>8.01</v>
+        <v>0.8</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>4.21</v>
+        <v>0.42</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.61</v>
+        <v>0.06</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>10.16</v>
+        <v>1.02</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>3.56</v>
+        <v>0.36</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>3.29</v>
+        <v>0.33</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>3.85</v>
+        <v>0.39</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>5.14</v>
+        <v>0.51</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.71</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>18.94</v>
+        <v>1.89</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>2.09</v>
+        <v>0.21</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>5.03</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41637.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>14.27</v>
+        <v>1.43</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>10.66</v>
+        <v>1.07</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>31.33</v>
+        <v>3.13</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>25.4</v>
+        <v>2.54</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>11.05</v>
+        <v>1.11</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>41.41</v>
+        <v>4.14</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>17.4</v>
+        <v>1.74</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>7.84</v>
+        <v>0.78</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>11.2</v>
+        <v>1.12</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>12.55</v>
+        <v>1.25</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>13.41</v>
+        <v>1.34</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.68</v>
+        <v>0.37</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>11.28</v>
+        <v>1.13</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>15.9</v>
+        <v>1.59</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>9.65</v>
+        <v>0.96</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.66</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.51</v>
+        <v>0.05</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>164.33</v>
+        <v>16.43</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>31.45</v>
+        <v>3.14</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>10.41</v>
+        <v>1.04</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>20.99</v>
+        <v>2.1</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>11.08</v>
+        <v>1.11</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.5</v>
+        <v>0.15</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>20.85</v>
+        <v>2.08</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>9.199999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>8.199999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>9.640000000000001</v>
+        <v>0.96</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>13.24</v>
+        <v>1.32</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.52</v>
+        <v>0.05</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>37.55</v>
+        <v>3.75</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>5.78</v>
+        <v>0.58</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>13.02</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41637.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>1.61</v>
+        <v>0.16</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>1.16</v>
+        <v>0.12</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.47</v>
+        <v>0.05</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>3.75</v>
+        <v>0.37</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>2.69</v>
+        <v>0.27</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>1.12</v>
+        <v>0.11</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>11.34</v>
+        <v>1.13</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>2.04</v>
+        <v>0.2</v>
       </c>
       <c r="J6" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AF6" s="4" t="n">
         <v>1.1</v>
       </c>
-      <c r="K6" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>5.49</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>11</v>
-      </c>
       <c r="AG6" s="4" t="n">
-        <v>0.59</v>
+        <v>0.06</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>1.57</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41637.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>7.3</v>
+        <v>0.73</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>5.45</v>
+        <v>0.54</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.59</v>
+        <v>0.06</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>16.08</v>
+        <v>1.61</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>12.96</v>
+        <v>1.3</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>5.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>20.76</v>
+        <v>2.08</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>8.91</v>
+        <v>0.89</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>4.03</v>
+        <v>0.4</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>5.65</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>6.44</v>
+        <v>0.64</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>6.91</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>1.9</v>
+        <v>0.19</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>5.79</v>
+        <v>0.58</v>
       </c>
       <c r="P7" s="4" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="Q7" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R7" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S7" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="T7" s="4" t="n">
         <v>8.08</v>
       </c>
-      <c r="Q7" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>80.75</v>
-      </c>
       <c r="U7" s="4" t="n">
-        <v>16.03</v>
+        <v>1.6</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>5.34</v>
+        <v>0.53</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>10.62</v>
+        <v>1.06</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>5.64</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>0.77</v>
+        <v>0.08</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>10.34</v>
+        <v>1.03</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>4.72</v>
+        <v>0.47</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>4.24</v>
+        <v>0.42</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>4.97</v>
+        <v>0.5</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>6.8</v>
+        <v>0.68</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.34</v>
+        <v>0.03</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>18.62</v>
+        <v>1.86</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>2.94</v>
+        <v>0.29</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>6.68</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41637.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>1.26</v>
+        <v>0.13</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>0.91</v>
+        <v>0.09</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.34</v>
+        <v>0.03</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>2.92</v>
+        <v>0.29</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>2.12</v>
+        <v>0.21</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>0.87</v>
+        <v>0.09</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>7.85</v>
+        <v>0.78</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>1.58</v>
+        <v>0.16</v>
       </c>
       <c r="J8" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="K8" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="L8" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="M8" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="N8" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O8" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="P8" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="Q8" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="R8" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="S8" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="T8" s="4" t="n">
         <v>0.88</v>
       </c>
-      <c r="K8" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="S8" s="4" t="n">
+      <c r="U8" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="V8" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W8" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="X8" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="Y8" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Z8" s="4" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="AA8" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AB8" s="4" t="n">
         <v>0.08</v>
       </c>
-      <c r="T8" s="4" t="n">
-        <v>8.789999999999999</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>0.85</v>
-      </c>
       <c r="AC8" s="4" t="n">
-        <v>0.97</v>
+        <v>0.1</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>1.24</v>
+        <v>0.12</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.29</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>7.57</v>
+        <v>0.76</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>0.46</v>
+        <v>0.05</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>1.22</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41637.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>3.77</v>
+        <v>0.38</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>2.8</v>
+        <v>0.28</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.38</v>
+        <v>0.04</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>8.359999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>6.66</v>
+        <v>0.67</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>2.85</v>
+        <v>0.28</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>10.93</v>
+        <v>1.09</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>4.61</v>
+        <v>0.46</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>2.1</v>
+        <v>0.21</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>2.84</v>
+        <v>0.28</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>3.34</v>
+        <v>0.33</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>3.61</v>
+        <v>0.36</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>3.01</v>
+        <v>0.3</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>4.13</v>
+        <v>0.41</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>2.65</v>
+        <v>0.26</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.32</v>
+        <v>0.03</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.14</v>
+        <v>0.01</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>38.4</v>
+        <v>3.84</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>8.289999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>2.78</v>
+        <v>0.28</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>5.41</v>
+        <v>0.54</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>2.89</v>
+        <v>0.29</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>0.4</v>
+        <v>0.04</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>5.43</v>
+        <v>0.54</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>2.45</v>
+        <v>0.25</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>2.22</v>
+        <v>0.22</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>2.61</v>
+        <v>0.26</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>3.53</v>
+        <v>0.35</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.25</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>9.82</v>
+        <v>0.98</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>1.5</v>
+        <v>0.15</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>3.47</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41637.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>5.12</v>
+        <v>0.51</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>3.82</v>
+        <v>0.38</v>
       </c>
       <c r="D10" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="F10" s="4" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="G10" s="4" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="H10" s="4" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="I10" s="4" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="J10" s="4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="K10" s="4" t="n">
         <v>0.4</v>
       </c>
-      <c r="E10" s="4" t="n">
-        <v>11.28</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>14.82</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>6.24</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>3.96</v>
-      </c>
       <c r="L10" s="4" t="n">
-        <v>4.52</v>
+        <v>0.45</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>4.85</v>
+        <v>0.48</v>
       </c>
       <c r="N10" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="O10" s="4" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="P10" s="4" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="Q10" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="R10" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="S10" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T10" s="4" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="U10" s="4" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="V10" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="W10" s="4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="X10" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Y10" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Z10" s="4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AA10" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AB10" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AC10" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="AD10" s="4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="AE10" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AF10" s="4" t="n">
         <v>1.34</v>
       </c>
-      <c r="O10" s="4" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>54.45</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>7.46</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>3.49</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>4.77</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>13.4</v>
-      </c>
       <c r="AG10" s="4" t="n">
-        <v>2.07</v>
+        <v>0.21</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>4.69</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_205.xlsx
+++ b/DATA_goal/Junction_Flooding_205.xlsx
@@ -444,32 +444,32 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
@@ -655,103 +655,103 @@
         <v>44886.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.43</v>
+        <v>14.32</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.95</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.35</v>
+        <v>3.55</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>3.09</v>
+        <v>30.93</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.34</v>
+        <v>23.41</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.11</v>
+        <v>11.08</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>3.34</v>
+        <v>33.37</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.75</v>
+        <v>17.45</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.7</v>
+        <v>7.02</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.05</v>
+        <v>10.47</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.21</v>
+        <v>12.13</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.29</v>
+        <v>12.89</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.36</v>
+        <v>3.62</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.13</v>
+        <v>11.28</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.55</v>
+        <v>15.51</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1</v>
+        <v>9.99</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.08</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.17</v>
+        <v>1.71</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>16.43</v>
+        <v>164.3</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>3.12</v>
+        <v>31.24</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.04</v>
+        <v>10.41</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>2.01</v>
+        <v>20.07</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.03</v>
+        <v>10.3</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.29</v>
+        <v>2.95</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.77</v>
+        <v>17.7</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.92</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.84</v>
+        <v>8.4</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.24</v>
+        <v>12.38</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.08</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>3.02</v>
+        <v>30.18</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.64</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.3</v>
+        <v>13.02</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44886.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.1</v>
+        <v>10.96</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.77</v>
+        <v>7.69</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.16</v>
+        <v>1.58</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>2.4</v>
+        <v>24.04</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.87</v>
+        <v>18.67</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.85</v>
+        <v>8.51</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>3.35</v>
+        <v>33.5</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.34</v>
+        <v>13.38</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.57</v>
+        <v>5.66</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.82</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.95</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.02</v>
+        <v>10.17</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.28</v>
+        <v>2.78</v>
       </c>
       <c r="O3" s="4" t="n">
+        <v>8.65</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>12.08</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>7.66</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="S3" s="4" t="n">
         <v>0.86</v>
       </c>
-      <c r="P3" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.09</v>
-      </c>
       <c r="T3" s="4" t="n">
-        <v>12.43</v>
+        <v>124.3</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>2.42</v>
+        <v>24.23</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.8</v>
+        <v>7.98</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.58</v>
+        <v>15.82</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.82</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.77</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.65</v>
+        <v>16.51</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.71</v>
+        <v>7.05</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.64</v>
+        <v>6.43</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.76</v>
+        <v>7.59</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.98</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.2</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>3.09</v>
+        <v>30.93</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.43</v>
+        <v>4.34</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1</v>
+        <v>9.98</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44886.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.33</v>
+        <v>3.29</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.21</v>
+        <v>2.14</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.86</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.74</v>
+        <v>7.36</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.52</v>
+        <v>5.23</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.25</v>
+        <v>2.5</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>1.41</v>
+        <v>14.15</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.41</v>
+        <v>4.07</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.17</v>
+        <v>1.66</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.22</v>
+        <v>2.18</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.29</v>
+        <v>2.89</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.31</v>
+        <v>3.14</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.86</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.26</v>
+        <v>2.63</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.36</v>
+        <v>3.64</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.25</v>
+        <v>2.55</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.89</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.43</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>3.28</v>
+        <v>32.78</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0.76</v>
+        <v>7.62</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.24</v>
+        <v>2.43</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.48</v>
+        <v>4.82</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.24</v>
+        <v>2.43</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.77</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.66</v>
+        <v>6.55</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.21</v>
+        <v>2.15</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.21</v>
+        <v>2.07</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.24</v>
+        <v>2.43</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.29</v>
+        <v>2.88</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>1.34</v>
+        <v>13.41</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.12</v>
+        <v>1.23</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.3</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44886.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2.44</v>
+        <v>24.43</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.81</v>
+        <v>18.13</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.14</v>
+        <v>1.37</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>5.33</v>
+        <v>53.34</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>4.35</v>
+        <v>43.45</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.92</v>
+        <v>19.16</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>6.96</v>
+        <v>69.61</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.97</v>
+        <v>29.67</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.32</v>
+        <v>13.16</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.95</v>
+        <v>19.48</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>2.14</v>
+        <v>21.37</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>2.27</v>
+        <v>22.68</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.62</v>
+        <v>6.16</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.92</v>
+        <v>19.17</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.73</v>
+        <v>27.26</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.62</v>
+        <v>16.17</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.85</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.1</v>
+        <v>0.95</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>28.45</v>
+        <v>284.52</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>5.35</v>
+        <v>53.51</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.77</v>
+        <v>17.7</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>3.6</v>
+        <v>35.95</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.89</v>
+        <v>18.88</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.28</v>
+        <v>2.83</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>3.47</v>
+        <v>34.71</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.56</v>
+        <v>15.63</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.39</v>
+        <v>13.86</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.63</v>
+        <v>16.3</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>2.23</v>
+        <v>22.35</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.54</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>6.32</v>
+        <v>63.19</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>1</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>2.21</v>
+        <v>22.13</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_205.xlsx
+++ b/DATA_goal/Junction_Flooding_205.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,58 +655,58 @@
         <v>44886.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>14.32</v>
+        <v>14.315</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>9.449999999999999</v>
+        <v>9.452</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.55</v>
+        <v>3.548</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>30.93</v>
+        <v>30.929</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>23.41</v>
+        <v>23.407</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>11.08</v>
+        <v>11.081</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>33.37</v>
+        <v>33.367</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>17.45</v>
+        <v>17.452</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>7.02</v>
+        <v>7.022</v>
       </c>
       <c r="K2" s="4" t="n">
         <v>10.47</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>12.13</v>
+        <v>12.134</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>12.89</v>
+        <v>12.887</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>3.62</v>
+        <v>3.618</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>11.28</v>
+        <v>11.279</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>15.51</v>
+        <v>15.513</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>9.99</v>
+        <v>9.993</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.08</v>
+        <v>3.077</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.71</v>
+        <v>1.709</v>
       </c>
       <c r="T2" s="4" t="n">
         <v>164.3</v>
@@ -715,43 +715,43 @@
         <v>31.24</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>10.41</v>
+        <v>10.411</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>20.07</v>
+        <v>20.071</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>10.3</v>
+        <v>10.298</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.95</v>
+        <v>2.945</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>17.7</v>
+        <v>17.697</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>9.199999999999999</v>
+        <v>9.196</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>8.4</v>
+        <v>8.398</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>10</v>
+        <v>9.994999999999999</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>12.38</v>
+        <v>12.384</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.08</v>
+        <v>3.078</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>30.18</v>
+        <v>30.175</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>5.64</v>
+        <v>5.636</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>13.02</v>
+        <v>13.015</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44886.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>10.96</v>
+        <v>10.965</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>7.69</v>
+        <v>7.687</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.58</v>
+        <v>1.578</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>24.04</v>
+        <v>24.042</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>18.67</v>
+        <v>18.672</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>8.51</v>
+        <v>8.509</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>33.5</v>
+        <v>33.503</v>
       </c>
       <c r="I3" s="4" t="n">
         <v>13.38</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>5.66</v>
+        <v>5.662</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>8.220000000000001</v>
+        <v>8.218999999999999</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>9.539999999999999</v>
+        <v>9.542</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>10.17</v>
+        <v>10.171</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.78</v>
+        <v>2.779</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>8.65</v>
+        <v>8.647</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>12.08</v>
+        <v>12.081</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>7.66</v>
+        <v>7.659</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.41</v>
+        <v>1.412</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.86</v>
+        <v>0.863</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>124.3</v>
+        <v>124.297</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>24.23</v>
+        <v>24.229</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>7.98</v>
+        <v>7.982</v>
       </c>
       <c r="W3" s="4" t="n">
         <v>15.82</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>8.220000000000001</v>
+        <v>8.222</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.77</v>
+        <v>1.772</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>16.51</v>
+        <v>16.511</v>
       </c>
       <c r="AA3" s="4" t="n">
         <v>7.05</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>6.43</v>
+        <v>6.434</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>7.59</v>
+        <v>7.589</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>9.779999999999999</v>
+        <v>9.784000000000001</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.2</v>
+        <v>1.199</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>30.93</v>
+        <v>30.929</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>4.34</v>
+        <v>4.345</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>9.98</v>
+        <v>9.978999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -863,100 +863,100 @@
         <v>44886.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>3.29</v>
+        <v>3.288</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>2.14</v>
+        <v>2.144</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.86</v>
+        <v>0.864</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>7.36</v>
+        <v>7.356</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>5.23</v>
+        <v>5.235</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>2.5</v>
+        <v>2.502</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>14.15</v>
+        <v>14.148</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>4.07</v>
+        <v>4.072</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.66</v>
+        <v>1.658</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>2.18</v>
+        <v>2.184</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>2.89</v>
+        <v>2.894</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>3.14</v>
+        <v>3.139</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.86</v>
+        <v>0.856</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>2.63</v>
+        <v>2.632</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>3.64</v>
+        <v>3.644</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>2.55</v>
+        <v>2.547</v>
       </c>
       <c r="R4" s="4" t="n">
         <v>0.89</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.43</v>
+        <v>0.426</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>32.78</v>
+        <v>32.781</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>7.62</v>
+        <v>7.618</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>2.43</v>
+        <v>2.429</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>4.82</v>
+        <v>4.816</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>2.43</v>
+        <v>2.425</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.766</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>6.55</v>
+        <v>6.554</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>2.15</v>
+        <v>2.146</v>
       </c>
       <c r="AB4" s="4" t="n">
         <v>2.07</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>2.43</v>
+        <v>2.429</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>2.88</v>
+        <v>2.878</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.75</v>
+        <v>0.747</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>13.41</v>
+        <v>13.412</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.23</v>
+        <v>1.227</v>
       </c>
       <c r="AH4" s="4" t="n">
         <v>3.04</v>
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>22.13</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44886.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>8.81</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>26.16</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>39.92</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>14.54</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>6.42</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>9.41</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>10.47</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>11.15</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>13.35</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>135.76</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>8.68</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>17.64</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>9.220000000000001</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>19.02</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>7.66</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>8.039999999999999</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>10.92</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>36.59</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>4.84</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>10.85</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_205.xlsx
+++ b/DATA_goal/Junction_Flooding_205.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,21 +444,21 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
@@ -468,9 +468,9 @@
     <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
@@ -967,103 +967,207 @@
         <v>44886.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>24.43</v>
+        <v>24.434</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>18.13</v>
+        <v>18.135</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.37</v>
+        <v>1.366</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>53.34</v>
+        <v>53.342</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>43.45</v>
+        <v>43.451</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>19.16</v>
+        <v>19.162</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>69.61</v>
+        <v>69.61499999999999</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>29.67</v>
+        <v>29.668</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>13.16</v>
+        <v>13.156</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>19.48</v>
+        <v>19.479</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>21.37</v>
+        <v>21.366</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>22.68</v>
+        <v>22.679</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>6.16</v>
+        <v>6.158</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>19.17</v>
+        <v>19.174</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>27.26</v>
+        <v>27.259</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>16.17</v>
+        <v>16.171</v>
       </c>
       <c r="R5" s="4" t="n">
         <v>0.85</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.95</v>
+        <v>0.954</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>284.52</v>
+        <v>284.525</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>53.51</v>
+        <v>53.507</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>17.7</v>
+        <v>17.698</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>35.95</v>
+        <v>35.951</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>18.88</v>
+        <v>18.879</v>
       </c>
       <c r="Y5" s="4" t="n">
         <v>2.83</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>34.71</v>
+        <v>34.711</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>15.63</v>
+        <v>15.633</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>13.86</v>
+        <v>13.856</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>16.3</v>
+        <v>16.302</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>22.35</v>
+        <v>22.349</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.54</v>
+        <v>0.542</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>63.19</v>
+        <v>63.194</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>9.970000000000001</v>
+        <v>9.967000000000001</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>22.13</v>
+        <v>22.127</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44886.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>8.81</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>26.16</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>9.35</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>39.92</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>14.54</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>9.41</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>10.47</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>11.15</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>13.35</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>8.02</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>135.76</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>8.68</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>17.64</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>9.220000000000001</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>19.02</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>7.66</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>10.92</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>36.59</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>10.85</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_205.xlsx
+++ b/DATA_goal/Junction_Flooding_205.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,21 +444,21 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
@@ -468,9 +468,9 @@
     <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
@@ -967,207 +967,103 @@
         <v>44886.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>24.434</v>
+        <v>24.43</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>18.135</v>
+        <v>18.13</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.366</v>
+        <v>1.37</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>53.342</v>
+        <v>53.34</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>43.451</v>
+        <v>43.45</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>19.162</v>
+        <v>19.16</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>69.61499999999999</v>
+        <v>69.61</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>29.668</v>
+        <v>29.67</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>13.156</v>
+        <v>13.16</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>19.479</v>
+        <v>19.48</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>21.366</v>
+        <v>21.37</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>22.679</v>
+        <v>22.68</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>6.158</v>
+        <v>6.16</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>19.174</v>
+        <v>19.17</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>27.259</v>
+        <v>27.26</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>16.171</v>
+        <v>16.17</v>
       </c>
       <c r="R5" s="4" t="n">
         <v>0.85</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.954</v>
+        <v>0.95</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>284.525</v>
+        <v>284.52</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>53.507</v>
+        <v>53.51</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>17.698</v>
+        <v>17.7</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>35.951</v>
+        <v>35.95</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>18.879</v>
+        <v>18.88</v>
       </c>
       <c r="Y5" s="4" t="n">
         <v>2.83</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>34.711</v>
+        <v>34.71</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>15.633</v>
+        <v>15.63</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>13.856</v>
+        <v>13.86</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>16.302</v>
+        <v>16.3</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>22.349</v>
+        <v>22.35</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.542</v>
+        <v>0.54</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>63.194</v>
+        <v>63.19</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>9.967000000000001</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>22.127</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44886.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>8.81</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>26.16</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>39.92</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>14.54</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>6.42</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>9.41</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>10.47</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>11.15</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>13.35</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>135.76</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>8.68</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>17.64</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>9.220000000000001</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>19.02</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>7.66</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>8.039999999999999</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>10.92</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>36.59</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>4.84</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>10.85</v>
+        <v>22.13</v>
       </c>
     </row>
   </sheetData>
